--- a/DCIT 65 - IT 3B/DCIT 65 - IT 3B.xlsx
+++ b/DCIT 65 - IT 3B/DCIT 65 - IT 3B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\DCIT 65 - IT 3B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618AF183-D075-43D5-8B3E-FC46522269F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45FF42B-0B45-426C-961F-DF7A0B57593D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -2545,6 +2545,115 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2617,110 +2726,103 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2763,18 +2865,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2782,88 +2872,6 @@
     <xf numFmtId="14" fontId="4" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2924,12 +2932,76 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2960,67 +3032,67 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3037,18 +3109,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3080,45 +3140,38 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3165,64 +3218,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4585,85 +4585,85 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:19">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="179"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="159"/>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="174"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A5" s="173"/>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="145" t="s">
+      <c r="A6" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="175"/>
+      <c r="C6" s="176" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="146" t="s">
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="146"/>
+      <c r="G6" s="177"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
@@ -4673,20 +4673,20 @@
       <c r="J6" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="K6" s="147" t="s">
+      <c r="K6" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="147"/>
-      <c r="M6" s="148" t="s">
+      <c r="L6" s="178"/>
+      <c r="M6" s="179" t="s">
         <v>193</v>
       </c>
-      <c r="N6" s="148"/>
+      <c r="N6" s="179"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="150"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="3" t="s">
         <v>184</v>
       </c>
@@ -4696,10 +4696,10 @@
       <c r="E7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="151" t="s">
+      <c r="F7" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="151"/>
+      <c r="G7" s="182"/>
       <c r="H7" s="5">
         <v>2</v>
       </c>
@@ -4709,20 +4709,20 @@
       <c r="J7" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K7" s="151" t="s">
+      <c r="K7" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="151"/>
-      <c r="M7" s="152" t="s">
+      <c r="L7" s="182"/>
+      <c r="M7" s="183" t="s">
         <v>195</v>
       </c>
-      <c r="N7" s="152"/>
+      <c r="N7" s="183"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="154"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="8" t="s">
         <v>135</v>
       </c>
@@ -4732,10 +4732,10 @@
       <c r="E8" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="155" t="s">
+      <c r="F8" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="155"/>
+      <c r="G8" s="186"/>
       <c r="H8" s="10">
         <f>SUM(H6:H7)</f>
         <v>3</v>
@@ -4746,66 +4746,66 @@
       <c r="J8" s="99">
         <v>353</v>
       </c>
-      <c r="K8" s="155" t="s">
+      <c r="K8" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="155"/>
-      <c r="M8" s="156" t="s">
+      <c r="L8" s="186"/>
+      <c r="M8" s="187" t="s">
         <v>185</v>
       </c>
-      <c r="N8" s="156"/>
+      <c r="N8" s="187"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161" t="s">
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="161" t="s">
+      <c r="H9" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="163" t="s">
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="164"/>
-      <c r="M9" s="163" t="s">
+      <c r="L9" s="166"/>
+      <c r="M9" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="164"/>
+      <c r="N9" s="166"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A10" s="157"/>
-      <c r="B10" s="159"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="190"/>
       <c r="C10" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="188" t="s">
+      <c r="D10" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="189"/>
+      <c r="E10" s="144"/>
       <c r="F10" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="12">
@@ -4825,19 +4825,19 @@
         <v>200</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="168"/>
-      <c r="N11" s="170"/>
-      <c r="P11" s="183" t="s">
+      <c r="H11" s="167"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="169"/>
+      <c r="P11" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="184"/>
-      <c r="S11" s="185"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="162"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="12">
@@ -4857,21 +4857,21 @@
         <v>204</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="167"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
       <c r="P12" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="175" t="s">
+      <c r="Q12" s="149" t="s">
         <v>186</v>
       </c>
-      <c r="R12" s="175"/>
-      <c r="S12" s="176"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="150"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="12">
@@ -4891,21 +4891,21 @@
         <v>208</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="167"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
       <c r="P13" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="175" t="s">
+      <c r="Q13" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="R13" s="175"/>
-      <c r="S13" s="176"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="150"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="12">
@@ -4925,21 +4925,21 @@
         <v>212</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="167"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
       <c r="P14" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="175" t="s">
+      <c r="Q14" s="149" t="s">
         <v>188</v>
       </c>
-      <c r="R14" s="175"/>
-      <c r="S14" s="176"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="150"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="12">
@@ -4959,21 +4959,21 @@
         <v>212</v>
       </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="167"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
       <c r="P15" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="Q15" s="175" t="s">
+      <c r="Q15" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="R15" s="175"/>
-      <c r="S15" s="176"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="150"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="12">
@@ -4993,21 +4993,21 @@
         <v>219</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="167"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
       <c r="P16" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="186" t="s">
+      <c r="Q16" s="163" t="s">
         <v>190</v>
       </c>
-      <c r="R16" s="186"/>
-      <c r="S16" s="187"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="164"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="12">
@@ -5027,21 +5027,21 @@
         <v>223</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="167"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
       <c r="P17" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="Q17" s="175" t="s">
+      <c r="Q17" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="R17" s="175"/>
-      <c r="S17" s="176"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="150"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1">
       <c r="A18" s="12">
@@ -5061,21 +5061,21 @@
         <v>227</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="167"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
       <c r="P18" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="Q18" s="141" t="s">
+      <c r="Q18" s="172" t="s">
         <v>192</v>
       </c>
-      <c r="R18" s="141"/>
-      <c r="S18" s="142"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="173"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="12">
@@ -5095,13 +5095,13 @@
         <v>231</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="167"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="12">
@@ -5121,13 +5121,13 @@
         <v>227</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="167"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="12">
@@ -5147,13 +5147,13 @@
         <v>227</v>
       </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="167"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
       <c r="Q21" s="84" t="s">
         <v>129</v>
       </c>
@@ -5176,13 +5176,13 @@
         <v>239</v>
       </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="167"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
       <c r="Q22" s="85">
         <v>0</v>
       </c>
@@ -5208,13 +5208,13 @@
         <v>243</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="167"/>
-      <c r="N23" s="167"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
       <c r="Q23" s="86">
         <v>70</v>
       </c>
@@ -5240,13 +5240,13 @@
         <v>204</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="167"/>
-      <c r="N24" s="167"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
       <c r="Q24" s="86">
         <v>73.34</v>
       </c>
@@ -5272,13 +5272,13 @@
         <v>219</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="166"/>
-      <c r="L25" s="166"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="167"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
       <c r="Q25" s="86">
         <v>76.680000000000007</v>
       </c>
@@ -5304,13 +5304,13 @@
         <v>208</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="166"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="167"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
       <c r="Q26" s="86">
         <v>80.02</v>
       </c>
@@ -5336,13 +5336,13 @@
         <v>196</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="167"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="153"/>
       <c r="Q27" s="86">
         <v>83.36</v>
       </c>
@@ -5368,13 +5368,13 @@
         <v>259</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="167"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
       <c r="Q28" s="86">
         <v>86.7</v>
       </c>
@@ -5400,13 +5400,13 @@
         <v>263</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="167"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="153"/>
       <c r="Q29" s="86">
         <v>90.04</v>
       </c>
@@ -5430,13 +5430,13 @@
       <c r="E30" s="130"/>
       <c r="F30" s="131"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="167"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="153"/>
       <c r="Q30" s="86">
         <v>93.38</v>
       </c>
@@ -5462,13 +5462,13 @@
         <v>259</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="167"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="153"/>
       <c r="Q31" s="85"/>
       <c r="R31" s="85"/>
     </row>
@@ -5490,13 +5490,13 @@
         <v>271</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="167"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="153"/>
       <c r="Q32" s="85">
         <v>96.72</v>
       </c>
@@ -5522,13 +5522,13 @@
         <v>200</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="166"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="167"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="153"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="12">
@@ -5548,13 +5548,13 @@
         <v>278</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="166"/>
-      <c r="L34" s="166"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="167"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="153"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="12">
@@ -5574,13 +5574,13 @@
         <v>196</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="166"/>
-      <c r="L35" s="166"/>
-      <c r="M35" s="167"/>
-      <c r="N35" s="167"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="153"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="12">
@@ -5600,13 +5600,13 @@
         <v>200</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="166"/>
-      <c r="L36" s="166"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="167"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="12">
@@ -5626,13 +5626,13 @@
         <v>287</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="166"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="12">
@@ -5652,13 +5652,13 @@
         <v>196</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="166"/>
-      <c r="L38" s="166"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="167"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="153"/>
+      <c r="N38" s="153"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="12">
@@ -5666,17 +5666,17 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="191"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="146"/>
       <c r="F39" s="13"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="166"/>
-      <c r="L39" s="166"/>
-      <c r="M39" s="167"/>
-      <c r="N39" s="167"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="153"/>
+      <c r="N39" s="153"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="12">
@@ -5684,17 +5684,17 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="191"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="146"/>
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="165"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="167"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="152"/>
+      <c r="M40" s="153"/>
+      <c r="N40" s="153"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="12">
@@ -5702,17 +5702,17 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="191"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="146"/>
       <c r="F41" s="13"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="165"/>
-      <c r="K41" s="166"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="167"/>
-      <c r="N41" s="167"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="153"/>
+      <c r="N41" s="153"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="12">
@@ -5720,17 +5720,17 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="191"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="146"/>
       <c r="F42" s="13"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="165"/>
-      <c r="I42" s="165"/>
-      <c r="J42" s="165"/>
-      <c r="K42" s="166"/>
-      <c r="L42" s="166"/>
-      <c r="M42" s="167"/>
-      <c r="N42" s="167"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="152"/>
+      <c r="M42" s="153"/>
+      <c r="N42" s="153"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="12">
@@ -5738,17 +5738,17 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="191"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="146"/>
       <c r="F43" s="13"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="166"/>
-      <c r="L43" s="166"/>
-      <c r="M43" s="167"/>
-      <c r="N43" s="167"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="153"/>
+      <c r="N43" s="153"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="12">
@@ -5756,17 +5756,17 @@
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="190"/>
-      <c r="E44" s="191"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="146"/>
       <c r="F44" s="13"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="166"/>
-      <c r="L44" s="166"/>
-      <c r="M44" s="167"/>
-      <c r="N44" s="167"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="152"/>
+      <c r="M44" s="153"/>
+      <c r="N44" s="153"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="12">
@@ -5774,17 +5774,17 @@
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="190"/>
-      <c r="E45" s="191"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="146"/>
       <c r="F45" s="13"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="165"/>
-      <c r="K45" s="166"/>
-      <c r="L45" s="166"/>
-      <c r="M45" s="167"/>
-      <c r="N45" s="167"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="152"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="153"/>
+      <c r="N45" s="153"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="12">
@@ -5792,17 +5792,17 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="190"/>
-      <c r="E46" s="191"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="146"/>
       <c r="F46" s="13"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="165"/>
-      <c r="I46" s="165"/>
-      <c r="J46" s="165"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="167"/>
-      <c r="N46" s="167"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="152"/>
+      <c r="M46" s="153"/>
+      <c r="N46" s="153"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="12">
@@ -5810,17 +5810,17 @@
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="190"/>
-      <c r="E47" s="191"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="146"/>
       <c r="F47" s="13"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="165"/>
-      <c r="I47" s="165"/>
-      <c r="J47" s="165"/>
-      <c r="K47" s="166"/>
-      <c r="L47" s="166"/>
-      <c r="M47" s="167"/>
-      <c r="N47" s="167"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="152"/>
+      <c r="L47" s="152"/>
+      <c r="M47" s="153"/>
+      <c r="N47" s="153"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="12">
@@ -5828,17 +5828,17 @@
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="191"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="146"/>
       <c r="F48" s="13"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="165"/>
-      <c r="J48" s="165"/>
-      <c r="K48" s="166"/>
-      <c r="L48" s="166"/>
-      <c r="M48" s="167"/>
-      <c r="N48" s="167"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="152"/>
+      <c r="L48" s="152"/>
+      <c r="M48" s="153"/>
+      <c r="N48" s="153"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="12">
@@ -5846,17 +5846,17 @@
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="190"/>
-      <c r="E49" s="191"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="146"/>
       <c r="F49" s="13"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="165"/>
-      <c r="I49" s="165"/>
-      <c r="J49" s="165"/>
-      <c r="K49" s="166"/>
-      <c r="L49" s="166"/>
-      <c r="M49" s="167"/>
-      <c r="N49" s="167"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="152"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="153"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="12">
@@ -5864,17 +5864,17 @@
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="190"/>
-      <c r="E50" s="191"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="146"/>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="165"/>
-      <c r="K50" s="166"/>
-      <c r="L50" s="166"/>
-      <c r="M50" s="167"/>
-      <c r="N50" s="167"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="152"/>
+      <c r="L50" s="152"/>
+      <c r="M50" s="153"/>
+      <c r="N50" s="153"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="12">
@@ -5882,17 +5882,17 @@
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="190"/>
-      <c r="E51" s="191"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="146"/>
       <c r="F51" s="13"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="166"/>
-      <c r="L51" s="166"/>
-      <c r="M51" s="167"/>
-      <c r="N51" s="167"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="152"/>
+      <c r="L51" s="152"/>
+      <c r="M51" s="153"/>
+      <c r="N51" s="153"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="12">
@@ -5900,17 +5900,17 @@
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="190"/>
-      <c r="E52" s="191"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="146"/>
       <c r="F52" s="13"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="165"/>
-      <c r="K52" s="166"/>
-      <c r="L52" s="166"/>
-      <c r="M52" s="167"/>
-      <c r="N52" s="167"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="151"/>
+      <c r="K52" s="152"/>
+      <c r="L52" s="152"/>
+      <c r="M52" s="153"/>
+      <c r="N52" s="153"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="12">
@@ -5918,17 +5918,17 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="190"/>
-      <c r="E53" s="191"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="146"/>
       <c r="F53" s="13"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="165"/>
-      <c r="J53" s="165"/>
-      <c r="K53" s="166"/>
-      <c r="L53" s="166"/>
-      <c r="M53" s="167"/>
-      <c r="N53" s="167"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="151"/>
+      <c r="K53" s="152"/>
+      <c r="L53" s="152"/>
+      <c r="M53" s="153"/>
+      <c r="N53" s="153"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="12">
@@ -5936,17 +5936,17 @@
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="191"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="146"/>
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="166"/>
-      <c r="L54" s="166"/>
-      <c r="M54" s="167"/>
-      <c r="N54" s="167"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="151"/>
+      <c r="K54" s="152"/>
+      <c r="L54" s="152"/>
+      <c r="M54" s="153"/>
+      <c r="N54" s="153"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="12">
@@ -5954,17 +5954,17 @@
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="15"/>
-      <c r="D55" s="190"/>
-      <c r="E55" s="191"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="146"/>
       <c r="F55" s="13"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="166"/>
-      <c r="L55" s="166"/>
-      <c r="M55" s="167"/>
-      <c r="N55" s="167"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="151"/>
+      <c r="K55" s="152"/>
+      <c r="L55" s="152"/>
+      <c r="M55" s="153"/>
+      <c r="N55" s="153"/>
     </row>
     <row r="56" spans="1:14" hidden="1">
       <c r="A56" s="12">
@@ -5976,13 +5976,13 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="166"/>
-      <c r="L56" s="166"/>
-      <c r="M56" s="167"/>
-      <c r="N56" s="167"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="151"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
+      <c r="M56" s="153"/>
+      <c r="N56" s="153"/>
     </row>
     <row r="57" spans="1:14" hidden="1">
       <c r="A57" s="12">
@@ -5994,13 +5994,13 @@
       <c r="E57" s="75"/>
       <c r="F57" s="75"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="165"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="165"/>
-      <c r="K57" s="166"/>
-      <c r="L57" s="166"/>
-      <c r="M57" s="167"/>
-      <c r="N57" s="167"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="151"/>
+      <c r="K57" s="152"/>
+      <c r="L57" s="152"/>
+      <c r="M57" s="153"/>
+      <c r="N57" s="153"/>
     </row>
     <row r="58" spans="1:14" hidden="1">
       <c r="A58" s="12">
@@ -6012,13 +6012,13 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="165"/>
-      <c r="K58" s="166"/>
-      <c r="L58" s="166"/>
-      <c r="M58" s="167"/>
-      <c r="N58" s="167"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="151"/>
+      <c r="K58" s="152"/>
+      <c r="L58" s="152"/>
+      <c r="M58" s="153"/>
+      <c r="N58" s="153"/>
     </row>
     <row r="59" spans="1:14" hidden="1">
       <c r="A59" s="12">
@@ -6030,13 +6030,13 @@
       <c r="E59" s="75"/>
       <c r="F59" s="75"/>
       <c r="G59" s="14"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="165"/>
-      <c r="K59" s="166"/>
-      <c r="L59" s="166"/>
-      <c r="M59" s="167"/>
-      <c r="N59" s="167"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="151"/>
+      <c r="J59" s="151"/>
+      <c r="K59" s="152"/>
+      <c r="L59" s="152"/>
+      <c r="M59" s="153"/>
+      <c r="N59" s="153"/>
     </row>
     <row r="60" spans="1:14" hidden="1">
       <c r="A60" s="12">
@@ -6048,13 +6048,13 @@
       <c r="E60" s="75"/>
       <c r="F60" s="75"/>
       <c r="G60" s="14"/>
-      <c r="H60" s="165"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="165"/>
-      <c r="K60" s="166"/>
-      <c r="L60" s="166"/>
-      <c r="M60" s="167"/>
-      <c r="N60" s="167"/>
+      <c r="H60" s="151"/>
+      <c r="I60" s="151"/>
+      <c r="J60" s="151"/>
+      <c r="K60" s="152"/>
+      <c r="L60" s="152"/>
+      <c r="M60" s="153"/>
+      <c r="N60" s="153"/>
     </row>
     <row r="61" spans="1:14" hidden="1">
       <c r="A61" s="12">
@@ -6066,13 +6066,13 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="166"/>
-      <c r="L61" s="166"/>
-      <c r="M61" s="167"/>
-      <c r="N61" s="167"/>
+      <c r="H61" s="151"/>
+      <c r="I61" s="151"/>
+      <c r="J61" s="151"/>
+      <c r="K61" s="152"/>
+      <c r="L61" s="152"/>
+      <c r="M61" s="153"/>
+      <c r="N61" s="153"/>
     </row>
     <row r="62" spans="1:14" hidden="1">
       <c r="A62" s="12">
@@ -6084,13 +6084,13 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="165"/>
-      <c r="K62" s="166"/>
-      <c r="L62" s="166"/>
-      <c r="M62" s="167"/>
-      <c r="N62" s="167"/>
+      <c r="H62" s="151"/>
+      <c r="I62" s="151"/>
+      <c r="J62" s="151"/>
+      <c r="K62" s="152"/>
+      <c r="L62" s="152"/>
+      <c r="M62" s="153"/>
+      <c r="N62" s="153"/>
     </row>
     <row r="63" spans="1:14" hidden="1">
       <c r="A63" s="12">
@@ -6102,13 +6102,13 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="165"/>
-      <c r="I63" s="165"/>
-      <c r="J63" s="165"/>
-      <c r="K63" s="166"/>
-      <c r="L63" s="166"/>
-      <c r="M63" s="167"/>
-      <c r="N63" s="167"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="151"/>
+      <c r="J63" s="151"/>
+      <c r="K63" s="152"/>
+      <c r="L63" s="152"/>
+      <c r="M63" s="153"/>
+      <c r="N63" s="153"/>
     </row>
     <row r="64" spans="1:14" hidden="1">
       <c r="A64" s="12">
@@ -6120,13 +6120,13 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="14"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="165"/>
-      <c r="J64" s="165"/>
-      <c r="K64" s="166"/>
-      <c r="L64" s="166"/>
-      <c r="M64" s="167"/>
-      <c r="N64" s="167"/>
+      <c r="H64" s="151"/>
+      <c r="I64" s="151"/>
+      <c r="J64" s="151"/>
+      <c r="K64" s="152"/>
+      <c r="L64" s="152"/>
+      <c r="M64" s="153"/>
+      <c r="N64" s="153"/>
     </row>
     <row r="65" spans="1:14" hidden="1">
       <c r="A65" s="12">
@@ -6138,13 +6138,13 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="14"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="165"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="166"/>
-      <c r="L65" s="166"/>
-      <c r="M65" s="167"/>
-      <c r="N65" s="167"/>
+      <c r="H65" s="151"/>
+      <c r="I65" s="151"/>
+      <c r="J65" s="151"/>
+      <c r="K65" s="152"/>
+      <c r="L65" s="152"/>
+      <c r="M65" s="153"/>
+      <c r="N65" s="153"/>
     </row>
     <row r="66" spans="1:14" hidden="1">
       <c r="A66" s="12">
@@ -6156,13 +6156,13 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
-      <c r="H66" s="165"/>
-      <c r="I66" s="165"/>
-      <c r="J66" s="165"/>
-      <c r="K66" s="166"/>
-      <c r="L66" s="166"/>
-      <c r="M66" s="167"/>
-      <c r="N66" s="167"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="151"/>
+      <c r="J66" s="151"/>
+      <c r="K66" s="152"/>
+      <c r="L66" s="152"/>
+      <c r="M66" s="153"/>
+      <c r="N66" s="153"/>
     </row>
     <row r="67" spans="1:14" hidden="1">
       <c r="A67" s="12">
@@ -6174,13 +6174,13 @@
       <c r="E67" s="13"/>
       <c r="F67" s="75"/>
       <c r="G67" s="14"/>
-      <c r="H67" s="165"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="165"/>
-      <c r="K67" s="166"/>
-      <c r="L67" s="166"/>
-      <c r="M67" s="167"/>
-      <c r="N67" s="167"/>
+      <c r="H67" s="151"/>
+      <c r="I67" s="151"/>
+      <c r="J67" s="151"/>
+      <c r="K67" s="152"/>
+      <c r="L67" s="152"/>
+      <c r="M67" s="153"/>
+      <c r="N67" s="153"/>
     </row>
     <row r="68" spans="1:14" hidden="1">
       <c r="A68" s="12">
@@ -6192,13 +6192,13 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="14"/>
-      <c r="H68" s="165"/>
-      <c r="I68" s="165"/>
-      <c r="J68" s="165"/>
-      <c r="K68" s="166"/>
-      <c r="L68" s="166"/>
-      <c r="M68" s="167"/>
-      <c r="N68" s="167"/>
+      <c r="H68" s="151"/>
+      <c r="I68" s="151"/>
+      <c r="J68" s="151"/>
+      <c r="K68" s="152"/>
+      <c r="L68" s="152"/>
+      <c r="M68" s="153"/>
+      <c r="N68" s="153"/>
     </row>
     <row r="69" spans="1:14" hidden="1">
       <c r="A69" s="12">
@@ -6210,13 +6210,13 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="165"/>
-      <c r="I69" s="165"/>
-      <c r="J69" s="165"/>
-      <c r="K69" s="166"/>
-      <c r="L69" s="166"/>
-      <c r="M69" s="167"/>
-      <c r="N69" s="167"/>
+      <c r="H69" s="151"/>
+      <c r="I69" s="151"/>
+      <c r="J69" s="151"/>
+      <c r="K69" s="152"/>
+      <c r="L69" s="152"/>
+      <c r="M69" s="153"/>
+      <c r="N69" s="153"/>
     </row>
     <row r="70" spans="1:14" hidden="1">
       <c r="A70" s="12">
@@ -6228,13 +6228,13 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
-      <c r="H70" s="165"/>
-      <c r="I70" s="165"/>
-      <c r="J70" s="165"/>
-      <c r="K70" s="166"/>
-      <c r="L70" s="166"/>
-      <c r="M70" s="167"/>
-      <c r="N70" s="167"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="151"/>
+      <c r="J70" s="151"/>
+      <c r="K70" s="152"/>
+      <c r="L70" s="152"/>
+      <c r="M70" s="153"/>
+      <c r="N70" s="153"/>
     </row>
     <row r="71" spans="1:14" hidden="1">
       <c r="A71" s="12">
@@ -6246,13 +6246,13 @@
       <c r="E71" s="75"/>
       <c r="F71" s="75"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="165"/>
-      <c r="I71" s="165"/>
-      <c r="J71" s="165"/>
-      <c r="K71" s="166"/>
-      <c r="L71" s="166"/>
-      <c r="M71" s="167"/>
-      <c r="N71" s="167"/>
+      <c r="H71" s="151"/>
+      <c r="I71" s="151"/>
+      <c r="J71" s="151"/>
+      <c r="K71" s="152"/>
+      <c r="L71" s="152"/>
+      <c r="M71" s="153"/>
+      <c r="N71" s="153"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6260,24 +6260,196 @@
     <sortCondition ref="C11:C45"/>
   </sortState>
   <mergeCells count="232">
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="Q15:S15"/>
@@ -6302,196 +6474,24 @@
     <mergeCell ref="M67:N67"/>
     <mergeCell ref="H68:J68"/>
     <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <conditionalFormatting sqref="B39:B71">
     <cfRule type="cellIs" dxfId="28" priority="34" stopIfTrue="1" operator="equal">
@@ -6688,452 +6688,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="195" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="232"/>
-      <c r="U2" s="232"/>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="232"/>
-      <c r="Y2" s="232"/>
-      <c r="Z2" s="232"/>
-      <c r="AA2" s="232"/>
-      <c r="AB2" s="232"/>
-      <c r="AC2" s="232"/>
-      <c r="AD2" s="232"/>
-      <c r="AE2" s="232"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="232"/>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="232"/>
-      <c r="AJ2" s="232"/>
-      <c r="AK2" s="232"/>
-      <c r="AL2" s="232"/>
-      <c r="AM2" s="232"/>
-      <c r="AN2" s="232"/>
-      <c r="AO2" s="232"/>
-      <c r="AP2" s="232"/>
-      <c r="AQ2" s="232"/>
-      <c r="AR2" s="232"/>
-      <c r="AS2" s="232"/>
-      <c r="AT2" s="232"/>
-      <c r="AU2" s="232"/>
-      <c r="AV2" s="232"/>
-      <c r="AW2" s="232"/>
-      <c r="AX2" s="232"/>
-      <c r="AY2" s="232"/>
-      <c r="AZ2" s="232"/>
-      <c r="BA2" s="232"/>
-      <c r="BB2" s="232"/>
-      <c r="BC2" s="232"/>
-      <c r="BD2" s="232"/>
-      <c r="BE2" s="232"/>
-      <c r="BF2" s="232"/>
-      <c r="BG2" s="232"/>
-      <c r="BH2" s="232"/>
-      <c r="BI2" s="232"/>
-      <c r="BJ2" s="232"/>
-      <c r="BK2" s="232"/>
-      <c r="BL2" s="232"/>
-      <c r="BM2" s="232"/>
-      <c r="BN2" s="232"/>
-      <c r="BO2" s="232"/>
-      <c r="BP2" s="232"/>
-      <c r="BQ2" s="232"/>
-      <c r="BR2" s="232"/>
-      <c r="BS2" s="232"/>
-      <c r="BT2" s="232"/>
-      <c r="BU2" s="232"/>
-      <c r="BV2" s="232"/>
-      <c r="BW2" s="232"/>
-      <c r="BX2" s="232"/>
-      <c r="BY2" s="232"/>
-      <c r="BZ2" s="232"/>
-      <c r="CA2" s="232"/>
-      <c r="CB2" s="232"/>
-      <c r="CC2" s="232"/>
-      <c r="CD2" s="232"/>
-      <c r="CE2" s="232"/>
-      <c r="CF2" s="232"/>
-      <c r="CG2" s="232"/>
-      <c r="CH2" s="232"/>
-      <c r="CI2" s="232"/>
-      <c r="CJ2" s="232"/>
-      <c r="CK2" s="232"/>
-      <c r="CL2" s="232"/>
-      <c r="CM2" s="232"/>
-      <c r="CN2" s="232"/>
-      <c r="CO2" s="232"/>
-      <c r="CP2" s="232"/>
-      <c r="CQ2" s="232"/>
-      <c r="CR2" s="232"/>
-      <c r="CS2" s="232"/>
-      <c r="CT2" s="232"/>
-      <c r="CU2" s="232"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="195"/>
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="195"/>
+      <c r="AQ2" s="195"/>
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="195"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="195"/>
+      <c r="BB2" s="195"/>
+      <c r="BC2" s="195"/>
+      <c r="BD2" s="195"/>
+      <c r="BE2" s="195"/>
+      <c r="BF2" s="195"/>
+      <c r="BG2" s="195"/>
+      <c r="BH2" s="195"/>
+      <c r="BI2" s="195"/>
+      <c r="BJ2" s="195"/>
+      <c r="BK2" s="195"/>
+      <c r="BL2" s="195"/>
+      <c r="BM2" s="195"/>
+      <c r="BN2" s="195"/>
+      <c r="BO2" s="195"/>
+      <c r="BP2" s="195"/>
+      <c r="BQ2" s="195"/>
+      <c r="BR2" s="195"/>
+      <c r="BS2" s="195"/>
+      <c r="BT2" s="195"/>
+      <c r="BU2" s="195"/>
+      <c r="BV2" s="195"/>
+      <c r="BW2" s="195"/>
+      <c r="BX2" s="195"/>
+      <c r="BY2" s="195"/>
+      <c r="BZ2" s="195"/>
+      <c r="CA2" s="195"/>
+      <c r="CB2" s="195"/>
+      <c r="CC2" s="195"/>
+      <c r="CD2" s="195"/>
+      <c r="CE2" s="195"/>
+      <c r="CF2" s="195"/>
+      <c r="CG2" s="195"/>
+      <c r="CH2" s="195"/>
+      <c r="CI2" s="195"/>
+      <c r="CJ2" s="195"/>
+      <c r="CK2" s="195"/>
+      <c r="CL2" s="195"/>
+      <c r="CM2" s="195"/>
+      <c r="CN2" s="195"/>
+      <c r="CO2" s="195"/>
+      <c r="CP2" s="195"/>
+      <c r="CQ2" s="195"/>
+      <c r="CR2" s="195"/>
+      <c r="CS2" s="195"/>
+      <c r="CT2" s="195"/>
+      <c r="CU2" s="195"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="232"/>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="232"/>
-      <c r="Y3" s="232"/>
-      <c r="Z3" s="232"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="232"/>
-      <c r="AC3" s="232"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="232"/>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="232"/>
-      <c r="AJ3" s="232"/>
-      <c r="AK3" s="232"/>
-      <c r="AL3" s="232"/>
-      <c r="AM3" s="232"/>
-      <c r="AN3" s="232"/>
-      <c r="AO3" s="232"/>
-      <c r="AP3" s="232"/>
-      <c r="AQ3" s="232"/>
-      <c r="AR3" s="232"/>
-      <c r="AS3" s="232"/>
-      <c r="AT3" s="232"/>
-      <c r="AU3" s="232"/>
-      <c r="AV3" s="232"/>
-      <c r="AW3" s="232"/>
-      <c r="AX3" s="232"/>
-      <c r="AY3" s="232"/>
-      <c r="AZ3" s="232"/>
-      <c r="BA3" s="232"/>
-      <c r="BB3" s="232"/>
-      <c r="BC3" s="232"/>
-      <c r="BD3" s="232"/>
-      <c r="BE3" s="232"/>
-      <c r="BF3" s="232"/>
-      <c r="BG3" s="232"/>
-      <c r="BH3" s="232"/>
-      <c r="BI3" s="232"/>
-      <c r="BJ3" s="232"/>
-      <c r="BK3" s="232"/>
-      <c r="BL3" s="232"/>
-      <c r="BM3" s="232"/>
-      <c r="BN3" s="232"/>
-      <c r="BO3" s="232"/>
-      <c r="BP3" s="232"/>
-      <c r="BQ3" s="232"/>
-      <c r="BR3" s="232"/>
-      <c r="BS3" s="232"/>
-      <c r="BT3" s="232"/>
-      <c r="BU3" s="232"/>
-      <c r="BV3" s="232"/>
-      <c r="BW3" s="232"/>
-      <c r="BX3" s="232"/>
-      <c r="BY3" s="232"/>
-      <c r="BZ3" s="232"/>
-      <c r="CA3" s="232"/>
-      <c r="CB3" s="232"/>
-      <c r="CC3" s="232"/>
-      <c r="CD3" s="232"/>
-      <c r="CE3" s="232"/>
-      <c r="CF3" s="232"/>
-      <c r="CG3" s="232"/>
-      <c r="CH3" s="232"/>
-      <c r="CI3" s="232"/>
-      <c r="CJ3" s="232"/>
-      <c r="CK3" s="232"/>
-      <c r="CL3" s="232"/>
-      <c r="CM3" s="232"/>
-      <c r="CN3" s="232"/>
-      <c r="CO3" s="232"/>
-      <c r="CP3" s="232"/>
-      <c r="CQ3" s="232"/>
-      <c r="CR3" s="232"/>
-      <c r="CS3" s="232"/>
-      <c r="CT3" s="232"/>
-      <c r="CU3" s="232"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="195"/>
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="195"/>
+      <c r="AH3" s="195"/>
+      <c r="AI3" s="195"/>
+      <c r="AJ3" s="195"/>
+      <c r="AK3" s="195"/>
+      <c r="AL3" s="195"/>
+      <c r="AM3" s="195"/>
+      <c r="AN3" s="195"/>
+      <c r="AO3" s="195"/>
+      <c r="AP3" s="195"/>
+      <c r="AQ3" s="195"/>
+      <c r="AR3" s="195"/>
+      <c r="AS3" s="195"/>
+      <c r="AT3" s="195"/>
+      <c r="AU3" s="195"/>
+      <c r="AV3" s="195"/>
+      <c r="AW3" s="195"/>
+      <c r="AX3" s="195"/>
+      <c r="AY3" s="195"/>
+      <c r="AZ3" s="195"/>
+      <c r="BA3" s="195"/>
+      <c r="BB3" s="195"/>
+      <c r="BC3" s="195"/>
+      <c r="BD3" s="195"/>
+      <c r="BE3" s="195"/>
+      <c r="BF3" s="195"/>
+      <c r="BG3" s="195"/>
+      <c r="BH3" s="195"/>
+      <c r="BI3" s="195"/>
+      <c r="BJ3" s="195"/>
+      <c r="BK3" s="195"/>
+      <c r="BL3" s="195"/>
+      <c r="BM3" s="195"/>
+      <c r="BN3" s="195"/>
+      <c r="BO3" s="195"/>
+      <c r="BP3" s="195"/>
+      <c r="BQ3" s="195"/>
+      <c r="BR3" s="195"/>
+      <c r="BS3" s="195"/>
+      <c r="BT3" s="195"/>
+      <c r="BU3" s="195"/>
+      <c r="BV3" s="195"/>
+      <c r="BW3" s="195"/>
+      <c r="BX3" s="195"/>
+      <c r="BY3" s="195"/>
+      <c r="BZ3" s="195"/>
+      <c r="CA3" s="195"/>
+      <c r="CB3" s="195"/>
+      <c r="CC3" s="195"/>
+      <c r="CD3" s="195"/>
+      <c r="CE3" s="195"/>
+      <c r="CF3" s="195"/>
+      <c r="CG3" s="195"/>
+      <c r="CH3" s="195"/>
+      <c r="CI3" s="195"/>
+      <c r="CJ3" s="195"/>
+      <c r="CK3" s="195"/>
+      <c r="CL3" s="195"/>
+      <c r="CM3" s="195"/>
+      <c r="CN3" s="195"/>
+      <c r="CO3" s="195"/>
+      <c r="CP3" s="195"/>
+      <c r="CQ3" s="195"/>
+      <c r="CR3" s="195"/>
+      <c r="CS3" s="195"/>
+      <c r="CT3" s="195"/>
+      <c r="CU3" s="195"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="196" t="s">
+      <c r="C5" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="197" t="s">
+      <c r="D5" s="226" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="198"/>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="198"/>
-      <c r="AH5" s="198"/>
-      <c r="AI5" s="198"/>
-      <c r="AJ5" s="198"/>
-      <c r="AK5" s="198"/>
-      <c r="AL5" s="198"/>
-      <c r="AM5" s="198"/>
-      <c r="AN5" s="198"/>
-      <c r="AO5" s="198"/>
-      <c r="AP5" s="198"/>
-      <c r="AQ5" s="198"/>
-      <c r="AR5" s="198"/>
-      <c r="AS5" s="198"/>
-      <c r="AT5" s="198"/>
-      <c r="AU5" s="198"/>
-      <c r="AV5" s="198"/>
-      <c r="AW5" s="198"/>
-      <c r="AX5" s="198"/>
-      <c r="AY5" s="198"/>
-      <c r="AZ5" s="198"/>
-      <c r="BA5" s="198"/>
-      <c r="BB5" s="198"/>
-      <c r="BC5" s="198"/>
-      <c r="BD5" s="199"/>
-      <c r="BE5" s="200" t="s">
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="227"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="227"/>
+      <c r="O5" s="227"/>
+      <c r="P5" s="227"/>
+      <c r="Q5" s="227"/>
+      <c r="R5" s="227"/>
+      <c r="S5" s="227"/>
+      <c r="T5" s="227"/>
+      <c r="U5" s="227"/>
+      <c r="V5" s="227"/>
+      <c r="W5" s="227"/>
+      <c r="X5" s="227"/>
+      <c r="Y5" s="227"/>
+      <c r="Z5" s="227"/>
+      <c r="AA5" s="227"/>
+      <c r="AB5" s="227"/>
+      <c r="AC5" s="227"/>
+      <c r="AD5" s="227"/>
+      <c r="AE5" s="227"/>
+      <c r="AF5" s="227"/>
+      <c r="AG5" s="227"/>
+      <c r="AH5" s="227"/>
+      <c r="AI5" s="227"/>
+      <c r="AJ5" s="227"/>
+      <c r="AK5" s="227"/>
+      <c r="AL5" s="227"/>
+      <c r="AM5" s="227"/>
+      <c r="AN5" s="227"/>
+      <c r="AO5" s="227"/>
+      <c r="AP5" s="227"/>
+      <c r="AQ5" s="227"/>
+      <c r="AR5" s="227"/>
+      <c r="AS5" s="227"/>
+      <c r="AT5" s="227"/>
+      <c r="AU5" s="227"/>
+      <c r="AV5" s="227"/>
+      <c r="AW5" s="227"/>
+      <c r="AX5" s="227"/>
+      <c r="AY5" s="227"/>
+      <c r="AZ5" s="227"/>
+      <c r="BA5" s="227"/>
+      <c r="BB5" s="227"/>
+      <c r="BC5" s="227"/>
+      <c r="BD5" s="228"/>
+      <c r="BE5" s="229" t="s">
         <v>31</v>
       </c>
-      <c r="BF5" s="201"/>
-      <c r="BG5" s="201"/>
-      <c r="BH5" s="201"/>
-      <c r="BI5" s="201"/>
-      <c r="BJ5" s="201"/>
-      <c r="BK5" s="201"/>
-      <c r="BL5" s="201"/>
-      <c r="BM5" s="201"/>
-      <c r="BN5" s="201"/>
-      <c r="BO5" s="201"/>
-      <c r="BP5" s="201"/>
-      <c r="BQ5" s="201"/>
-      <c r="BR5" s="201"/>
-      <c r="BS5" s="201"/>
-      <c r="BT5" s="201"/>
-      <c r="BU5" s="201"/>
-      <c r="BV5" s="201"/>
-      <c r="BW5" s="201"/>
-      <c r="BX5" s="201"/>
-      <c r="BY5" s="201"/>
-      <c r="BZ5" s="201"/>
-      <c r="CA5" s="201"/>
-      <c r="CB5" s="201"/>
-      <c r="CC5" s="201"/>
-      <c r="CD5" s="201"/>
-      <c r="CE5" s="201"/>
-      <c r="CF5" s="201"/>
-      <c r="CG5" s="201"/>
-      <c r="CH5" s="201"/>
-      <c r="CI5" s="201"/>
-      <c r="CJ5" s="201"/>
-      <c r="CK5" s="201"/>
-      <c r="CL5" s="201"/>
-      <c r="CM5" s="201"/>
-      <c r="CN5" s="201"/>
-      <c r="CO5" s="201"/>
-      <c r="CP5" s="201"/>
-      <c r="CQ5" s="201"/>
-      <c r="CR5" s="202"/>
-      <c r="CS5" s="209" t="s">
+      <c r="BF5" s="230"/>
+      <c r="BG5" s="230"/>
+      <c r="BH5" s="230"/>
+      <c r="BI5" s="230"/>
+      <c r="BJ5" s="230"/>
+      <c r="BK5" s="230"/>
+      <c r="BL5" s="230"/>
+      <c r="BM5" s="230"/>
+      <c r="BN5" s="230"/>
+      <c r="BO5" s="230"/>
+      <c r="BP5" s="230"/>
+      <c r="BQ5" s="230"/>
+      <c r="BR5" s="230"/>
+      <c r="BS5" s="230"/>
+      <c r="BT5" s="230"/>
+      <c r="BU5" s="230"/>
+      <c r="BV5" s="230"/>
+      <c r="BW5" s="230"/>
+      <c r="BX5" s="230"/>
+      <c r="BY5" s="230"/>
+      <c r="BZ5" s="230"/>
+      <c r="CA5" s="230"/>
+      <c r="CB5" s="230"/>
+      <c r="CC5" s="230"/>
+      <c r="CD5" s="230"/>
+      <c r="CE5" s="230"/>
+      <c r="CF5" s="230"/>
+      <c r="CG5" s="230"/>
+      <c r="CH5" s="230"/>
+      <c r="CI5" s="230"/>
+      <c r="CJ5" s="230"/>
+      <c r="CK5" s="230"/>
+      <c r="CL5" s="230"/>
+      <c r="CM5" s="230"/>
+      <c r="CN5" s="230"/>
+      <c r="CO5" s="230"/>
+      <c r="CP5" s="230"/>
+      <c r="CQ5" s="230"/>
+      <c r="CR5" s="231"/>
+      <c r="CS5" s="218" t="s">
         <v>32</v>
       </c>
-      <c r="CT5" s="210"/>
-      <c r="CU5" s="211"/>
+      <c r="CT5" s="219"/>
+      <c r="CU5" s="220"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="194"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="230" t="s">
+      <c r="A6" s="223"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="215" t="s">
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="203" t="s">
         <v>126</v>
       </c>
-      <c r="K6" s="215"/>
-      <c r="L6" s="215"/>
-      <c r="M6" s="215"/>
-      <c r="N6" s="215"/>
-      <c r="O6" s="215"/>
-      <c r="P6" s="215"/>
-      <c r="Q6" s="215"/>
-      <c r="R6" s="215"/>
-      <c r="S6" s="215"/>
-      <c r="T6" s="215"/>
-      <c r="U6" s="215"/>
-      <c r="V6" s="215"/>
-      <c r="W6" s="215"/>
-      <c r="X6" s="215"/>
-      <c r="Y6" s="215"/>
-      <c r="Z6" s="215"/>
-      <c r="AA6" s="215"/>
-      <c r="AB6" s="215"/>
-      <c r="AC6" s="215"/>
-      <c r="AD6" s="215"/>
-      <c r="AE6" s="215"/>
-      <c r="AF6" s="215"/>
-      <c r="AG6" s="215"/>
-      <c r="AH6" s="215"/>
-      <c r="AI6" s="215"/>
-      <c r="AJ6" s="215"/>
-      <c r="AK6" s="215"/>
-      <c r="AL6" s="215"/>
-      <c r="AM6" s="215"/>
-      <c r="AN6" s="215"/>
-      <c r="AO6" s="215" t="s">
+      <c r="K6" s="203"/>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="203"/>
+      <c r="AA6" s="203"/>
+      <c r="AB6" s="203"/>
+      <c r="AC6" s="203"/>
+      <c r="AD6" s="203"/>
+      <c r="AE6" s="203"/>
+      <c r="AF6" s="203"/>
+      <c r="AG6" s="203"/>
+      <c r="AH6" s="203"/>
+      <c r="AI6" s="203"/>
+      <c r="AJ6" s="203"/>
+      <c r="AK6" s="203"/>
+      <c r="AL6" s="203"/>
+      <c r="AM6" s="203"/>
+      <c r="AN6" s="203"/>
+      <c r="AO6" s="203" t="s">
         <v>127</v>
       </c>
-      <c r="AP6" s="215"/>
-      <c r="AQ6" s="215"/>
-      <c r="AR6" s="215"/>
-      <c r="AS6" s="215" t="s">
+      <c r="AP6" s="203"/>
+      <c r="AQ6" s="203"/>
+      <c r="AR6" s="203"/>
+      <c r="AS6" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="AT6" s="215"/>
-      <c r="AU6" s="215"/>
-      <c r="AV6" s="215" t="s">
+      <c r="AT6" s="203"/>
+      <c r="AU6" s="203"/>
+      <c r="AV6" s="203" t="s">
         <v>35</v>
       </c>
-      <c r="AW6" s="215"/>
-      <c r="AX6" s="215"/>
-      <c r="AY6" s="215"/>
-      <c r="AZ6" s="215"/>
-      <c r="BA6" s="215"/>
-      <c r="BB6" s="215"/>
-      <c r="BC6" s="220" t="s">
+      <c r="AW6" s="203"/>
+      <c r="AX6" s="203"/>
+      <c r="AY6" s="203"/>
+      <c r="AZ6" s="203"/>
+      <c r="BA6" s="203"/>
+      <c r="BB6" s="203"/>
+      <c r="BC6" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="BD6" s="221"/>
-      <c r="BE6" s="222" t="s">
+      <c r="BD6" s="212"/>
+      <c r="BE6" s="213" t="s">
         <v>136</v>
       </c>
-      <c r="BF6" s="223"/>
-      <c r="BG6" s="223"/>
-      <c r="BH6" s="223"/>
-      <c r="BI6" s="223"/>
-      <c r="BJ6" s="223"/>
-      <c r="BK6" s="224"/>
-      <c r="BL6" s="225" t="s">
+      <c r="BF6" s="214"/>
+      <c r="BG6" s="214"/>
+      <c r="BH6" s="214"/>
+      <c r="BI6" s="214"/>
+      <c r="BJ6" s="214"/>
+      <c r="BK6" s="215"/>
+      <c r="BL6" s="216" t="s">
         <v>137</v>
       </c>
-      <c r="BM6" s="223"/>
-      <c r="BN6" s="223"/>
-      <c r="BO6" s="223"/>
-      <c r="BP6" s="223"/>
-      <c r="BQ6" s="223"/>
-      <c r="BR6" s="223"/>
-      <c r="BS6" s="223"/>
-      <c r="BT6" s="223"/>
-      <c r="BU6" s="223"/>
-      <c r="BV6" s="223"/>
-      <c r="BW6" s="223"/>
-      <c r="BX6" s="223"/>
-      <c r="BY6" s="223"/>
-      <c r="BZ6" s="223"/>
-      <c r="CA6" s="223"/>
-      <c r="CB6" s="223"/>
-      <c r="CC6" s="223"/>
-      <c r="CD6" s="223"/>
-      <c r="CE6" s="223"/>
-      <c r="CF6" s="223"/>
-      <c r="CG6" s="223"/>
-      <c r="CH6" s="223"/>
-      <c r="CI6" s="223"/>
-      <c r="CJ6" s="223"/>
-      <c r="CK6" s="223"/>
-      <c r="CL6" s="223"/>
-      <c r="CM6" s="223"/>
-      <c r="CN6" s="223"/>
-      <c r="CO6" s="223"/>
-      <c r="CP6" s="223"/>
-      <c r="CQ6" s="212" t="s">
+      <c r="BM6" s="214"/>
+      <c r="BN6" s="214"/>
+      <c r="BO6" s="214"/>
+      <c r="BP6" s="214"/>
+      <c r="BQ6" s="214"/>
+      <c r="BR6" s="214"/>
+      <c r="BS6" s="214"/>
+      <c r="BT6" s="214"/>
+      <c r="BU6" s="214"/>
+      <c r="BV6" s="214"/>
+      <c r="BW6" s="214"/>
+      <c r="BX6" s="214"/>
+      <c r="BY6" s="214"/>
+      <c r="BZ6" s="214"/>
+      <c r="CA6" s="214"/>
+      <c r="CB6" s="214"/>
+      <c r="CC6" s="214"/>
+      <c r="CD6" s="214"/>
+      <c r="CE6" s="214"/>
+      <c r="CF6" s="214"/>
+      <c r="CG6" s="214"/>
+      <c r="CH6" s="214"/>
+      <c r="CI6" s="214"/>
+      <c r="CJ6" s="214"/>
+      <c r="CK6" s="214"/>
+      <c r="CL6" s="214"/>
+      <c r="CM6" s="214"/>
+      <c r="CN6" s="214"/>
+      <c r="CO6" s="214"/>
+      <c r="CP6" s="214"/>
+      <c r="CQ6" s="221" t="s">
         <v>37</v>
       </c>
-      <c r="CR6" s="212"/>
-      <c r="CS6" s="192" t="s">
+      <c r="CR6" s="221"/>
+      <c r="CS6" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="CT6" s="192" t="s">
+      <c r="CT6" s="217" t="s">
         <v>39</v>
       </c>
-      <c r="CU6" s="216" t="s">
+      <c r="CU6" s="207" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="194"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
       <c r="E7" s="94"/>
       <c r="F7" s="100">
         <v>0.3</v>
@@ -7142,34 +7142,34 @@
       <c r="I7" s="100">
         <v>0.3</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="205"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="205"/>
-      <c r="O7" s="205"/>
-      <c r="P7" s="205"/>
-      <c r="Q7" s="205"/>
-      <c r="R7" s="205"/>
-      <c r="S7" s="205"/>
-      <c r="T7" s="219"/>
-      <c r="U7" s="219"/>
-      <c r="V7" s="205"/>
-      <c r="W7" s="205"/>
-      <c r="X7" s="205"/>
-      <c r="Y7" s="205"/>
-      <c r="Z7" s="205"/>
-      <c r="AA7" s="205"/>
-      <c r="AB7" s="205"/>
-      <c r="AC7" s="205"/>
-      <c r="AD7" s="205"/>
-      <c r="AE7" s="205"/>
-      <c r="AF7" s="205"/>
-      <c r="AG7" s="205"/>
-      <c r="AH7" s="205"/>
-      <c r="AI7" s="205"/>
-      <c r="AJ7" s="205"/>
-      <c r="AK7" s="205"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="210"/>
+      <c r="U7" s="210"/>
+      <c r="V7" s="202"/>
+      <c r="W7" s="202"/>
+      <c r="X7" s="202"/>
+      <c r="Y7" s="202"/>
+      <c r="Z7" s="202"/>
+      <c r="AA7" s="202"/>
+      <c r="AB7" s="202"/>
+      <c r="AC7" s="202"/>
+      <c r="AD7" s="202"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="202"/>
+      <c r="AG7" s="202"/>
+      <c r="AH7" s="202"/>
+      <c r="AI7" s="202"/>
+      <c r="AJ7" s="202"/>
+      <c r="AK7" s="202"/>
       <c r="AL7" s="206">
         <f>COUNT(AJ9,AH9,AF9,AD9,Z9,V9,T9,P9,N9,L9,J9,X9)</f>
         <v>3</v>
@@ -7178,12 +7178,12 @@
       <c r="AN7" s="101">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="205" t="s">
+      <c r="AO7" s="202" t="s">
         <v>291</v>
       </c>
-      <c r="AP7" s="205"/>
-      <c r="AQ7" s="205"/>
-      <c r="AR7" s="205"/>
+      <c r="AP7" s="202"/>
+      <c r="AQ7" s="202"/>
+      <c r="AR7" s="202"/>
       <c r="AS7" s="206">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
@@ -7192,12 +7192,12 @@
       <c r="AU7" s="93">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="205" t="s">
+      <c r="AV7" s="202" t="s">
         <v>292</v>
       </c>
-      <c r="AW7" s="205"/>
-      <c r="AX7" s="205"/>
-      <c r="AY7" s="205"/>
+      <c r="AW7" s="202"/>
+      <c r="AX7" s="202"/>
+      <c r="AY7" s="202"/>
       <c r="AZ7" s="206">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
@@ -7206,14 +7206,14 @@
       <c r="BB7" s="17">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="220"/>
-      <c r="BD7" s="221"/>
-      <c r="BE7" s="205"/>
-      <c r="BF7" s="205"/>
-      <c r="BG7" s="207" t="s">
+      <c r="BC7" s="211"/>
+      <c r="BD7" s="212"/>
+      <c r="BE7" s="202"/>
+      <c r="BF7" s="202"/>
+      <c r="BG7" s="233" t="s">
         <v>293</v>
       </c>
-      <c r="BH7" s="208"/>
+      <c r="BH7" s="234"/>
       <c r="BI7" s="206">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>1</v>
@@ -7222,34 +7222,34 @@
       <c r="BK7" s="102">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="205"/>
-      <c r="BM7" s="205"/>
-      <c r="BN7" s="205"/>
-      <c r="BO7" s="205"/>
-      <c r="BP7" s="205"/>
-      <c r="BQ7" s="205"/>
-      <c r="BR7" s="205"/>
-      <c r="BS7" s="205"/>
-      <c r="BT7" s="205"/>
-      <c r="BU7" s="205"/>
-      <c r="BV7" s="205"/>
-      <c r="BW7" s="205"/>
-      <c r="BX7" s="205"/>
-      <c r="BY7" s="205"/>
-      <c r="BZ7" s="205"/>
-      <c r="CA7" s="205"/>
-      <c r="CB7" s="205"/>
-      <c r="CC7" s="205"/>
-      <c r="CD7" s="205"/>
-      <c r="CE7" s="205"/>
-      <c r="CF7" s="205"/>
-      <c r="CG7" s="205"/>
-      <c r="CH7" s="205"/>
-      <c r="CI7" s="205"/>
-      <c r="CJ7" s="205"/>
-      <c r="CK7" s="205"/>
-      <c r="CL7" s="205"/>
-      <c r="CM7" s="205"/>
+      <c r="BL7" s="202"/>
+      <c r="BM7" s="202"/>
+      <c r="BN7" s="202"/>
+      <c r="BO7" s="202"/>
+      <c r="BP7" s="202"/>
+      <c r="BQ7" s="202"/>
+      <c r="BR7" s="202"/>
+      <c r="BS7" s="202"/>
+      <c r="BT7" s="202"/>
+      <c r="BU7" s="202"/>
+      <c r="BV7" s="202"/>
+      <c r="BW7" s="202"/>
+      <c r="BX7" s="202"/>
+      <c r="BY7" s="202"/>
+      <c r="BZ7" s="202"/>
+      <c r="CA7" s="202"/>
+      <c r="CB7" s="202"/>
+      <c r="CC7" s="202"/>
+      <c r="CD7" s="202"/>
+      <c r="CE7" s="202"/>
+      <c r="CF7" s="202"/>
+      <c r="CG7" s="202"/>
+      <c r="CH7" s="202"/>
+      <c r="CI7" s="202"/>
+      <c r="CJ7" s="202"/>
+      <c r="CK7" s="202"/>
+      <c r="CL7" s="202"/>
+      <c r="CM7" s="202"/>
       <c r="CN7" s="206">
         <f>COUNT(CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>8</v>
@@ -7258,207 +7258,207 @@
       <c r="CP7" s="103">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="212"/>
-      <c r="CR7" s="212"/>
-      <c r="CS7" s="192"/>
-      <c r="CT7" s="192"/>
-      <c r="CU7" s="217"/>
+      <c r="CQ7" s="221"/>
+      <c r="CR7" s="221"/>
+      <c r="CS7" s="217"/>
+      <c r="CT7" s="217"/>
+      <c r="CU7" s="208"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="194"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="203" t="s">
+      <c r="A8" s="223"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="232" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203" t="s">
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="204" t="s">
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204" t="s">
+      <c r="K8" s="194"/>
+      <c r="L8" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204" t="s">
+      <c r="M8" s="194"/>
+      <c r="N8" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="204"/>
-      <c r="P8" s="204" t="s">
+      <c r="O8" s="194"/>
+      <c r="P8" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="204"/>
-      <c r="R8" s="204" t="s">
+      <c r="Q8" s="194"/>
+      <c r="R8" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="S8" s="204"/>
-      <c r="T8" s="204" t="s">
+      <c r="S8" s="194"/>
+      <c r="T8" s="194" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204" t="s">
+      <c r="U8" s="194"/>
+      <c r="V8" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204" t="s">
+      <c r="W8" s="194"/>
+      <c r="X8" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204" t="s">
+      <c r="Y8" s="194"/>
+      <c r="Z8" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204" t="s">
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="AC8" s="204"/>
-      <c r="AD8" s="204" t="s">
+      <c r="AC8" s="194"/>
+      <c r="AD8" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="AE8" s="204"/>
-      <c r="AF8" s="204" t="s">
+      <c r="AE8" s="194"/>
+      <c r="AF8" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="AG8" s="204"/>
-      <c r="AH8" s="204" t="s">
+      <c r="AG8" s="194"/>
+      <c r="AH8" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="AI8" s="204"/>
-      <c r="AJ8" s="204" t="s">
+      <c r="AI8" s="194"/>
+      <c r="AJ8" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="AK8" s="204"/>
-      <c r="AL8" s="204" t="s">
+      <c r="AK8" s="194"/>
+      <c r="AL8" s="194" t="s">
         <v>57</v>
       </c>
-      <c r="AM8" s="204"/>
+      <c r="AM8" s="194"/>
       <c r="AN8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AO8" s="204" t="s">
+      <c r="AO8" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="AP8" s="204"/>
-      <c r="AQ8" s="204" t="s">
+      <c r="AP8" s="194"/>
+      <c r="AQ8" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="AR8" s="204"/>
-      <c r="AS8" s="204" t="s">
+      <c r="AR8" s="194"/>
+      <c r="AS8" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="AT8" s="204"/>
+      <c r="AT8" s="194"/>
       <c r="AU8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AV8" s="204" t="s">
+      <c r="AV8" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="AW8" s="204"/>
-      <c r="AX8" s="204" t="s">
+      <c r="AW8" s="194"/>
+      <c r="AX8" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="AY8" s="204"/>
-      <c r="AZ8" s="204" t="s">
+      <c r="AY8" s="194"/>
+      <c r="AZ8" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="BA8" s="204"/>
+      <c r="BA8" s="194"/>
       <c r="BB8" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="BC8" s="220"/>
-      <c r="BD8" s="221"/>
-      <c r="BE8" s="228" t="s">
+      <c r="BC8" s="211"/>
+      <c r="BD8" s="212"/>
+      <c r="BE8" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="BF8" s="229"/>
-      <c r="BG8" s="226" t="s">
+      <c r="BF8" s="205"/>
+      <c r="BG8" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="BH8" s="227"/>
-      <c r="BI8" s="226" t="s">
+      <c r="BH8" s="199"/>
+      <c r="BI8" s="198" t="s">
         <v>166</v>
       </c>
-      <c r="BJ8" s="227"/>
+      <c r="BJ8" s="199"/>
       <c r="BK8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BL8" s="226" t="s">
+      <c r="BL8" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="BM8" s="227"/>
-      <c r="BN8" s="226" t="s">
+      <c r="BM8" s="199"/>
+      <c r="BN8" s="198" t="s">
         <v>167</v>
       </c>
-      <c r="BO8" s="227"/>
-      <c r="BP8" s="226" t="s">
+      <c r="BO8" s="199"/>
+      <c r="BP8" s="198" t="s">
         <v>68</v>
       </c>
-      <c r="BQ8" s="227"/>
-      <c r="BR8" s="226" t="s">
+      <c r="BQ8" s="199"/>
+      <c r="BR8" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="BS8" s="227"/>
-      <c r="BT8" s="226" t="s">
+      <c r="BS8" s="199"/>
+      <c r="BT8" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="BU8" s="227"/>
-      <c r="BV8" s="213" t="s">
+      <c r="BU8" s="199"/>
+      <c r="BV8" s="196" t="s">
         <v>71</v>
       </c>
-      <c r="BW8" s="214"/>
-      <c r="BX8" s="213" t="s">
+      <c r="BW8" s="197"/>
+      <c r="BX8" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="BY8" s="214"/>
-      <c r="BZ8" s="213" t="s">
+      <c r="BY8" s="197"/>
+      <c r="BZ8" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="CA8" s="214"/>
-      <c r="CB8" s="213" t="s">
+      <c r="CA8" s="197"/>
+      <c r="CB8" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="CC8" s="214"/>
-      <c r="CD8" s="213" t="s">
+      <c r="CC8" s="197"/>
+      <c r="CD8" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="CE8" s="214"/>
-      <c r="CF8" s="213" t="s">
+      <c r="CE8" s="197"/>
+      <c r="CF8" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="CG8" s="214"/>
-      <c r="CH8" s="213" t="s">
+      <c r="CG8" s="197"/>
+      <c r="CH8" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="CI8" s="214"/>
-      <c r="CJ8" s="213" t="s">
+      <c r="CI8" s="197"/>
+      <c r="CJ8" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="CK8" s="214"/>
-      <c r="CL8" s="213" t="s">
+      <c r="CK8" s="197"/>
+      <c r="CL8" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="CM8" s="214"/>
-      <c r="CN8" s="213"/>
-      <c r="CO8" s="214"/>
+      <c r="CM8" s="197"/>
+      <c r="CN8" s="196"/>
+      <c r="CO8" s="197"/>
       <c r="CP8" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="CQ8" s="212"/>
-      <c r="CR8" s="212"/>
-      <c r="CS8" s="192"/>
-      <c r="CT8" s="192"/>
-      <c r="CU8" s="217"/>
+      <c r="CQ8" s="221"/>
+      <c r="CR8" s="221"/>
+      <c r="CS8" s="217"/>
+      <c r="CT8" s="217"/>
+      <c r="CU8" s="208"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="195"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="225"/>
       <c r="D9" s="22">
         <v>75</v>
       </c>
@@ -7642,9 +7642,9 @@
       <c r="CR9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="CS9" s="192"/>
-      <c r="CT9" s="192"/>
-      <c r="CU9" s="218"/>
+      <c r="CS9" s="217"/>
+      <c r="CT9" s="217"/>
+      <c r="CU9" s="209"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="37">
@@ -23669,6 +23669,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -23685,88 +23767,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -23793,8 +23793,8 @@
   </sheetPr>
   <dimension ref="A2:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23804,43 +23804,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="233" t="str">
+      <c r="A2" s="235" t="str">
         <f>UPPER(CONCATENATE("GRADING SHEET A.Y."," ",REGISTRATION!Q12))</f>
         <v>GRADING SHEET A.Y. 2017-2018</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="233"/>
-      <c r="P2" s="233"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="235"/>
+      <c r="P2" s="235"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="233"/>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
-      <c r="M3" s="233"/>
-      <c r="N3" s="233"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="233"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" t="str">
@@ -23903,38 +23903,38 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:16" ht="15" customHeight="1">
-      <c r="A10" s="245" t="s">
+      <c r="A10" s="247" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="234" t="s">
+      <c r="C10" s="236" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234" t="s">
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="235" t="s">
+      <c r="K10" s="236"/>
+      <c r="L10" s="236"/>
+      <c r="M10" s="236"/>
+      <c r="N10" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="236"/>
-      <c r="P10" s="239" t="s">
+      <c r="O10" s="238"/>
+      <c r="P10" s="241" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="246"/>
-      <c r="B11" s="242" t="s">
+      <c r="A11" s="248"/>
+      <c r="B11" s="244" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -23952,27 +23952,27 @@
       <c r="G11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="244" t="s">
+      <c r="H11" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="244"/>
+      <c r="I11" s="246"/>
       <c r="J11" s="39" t="s">
         <v>168</v>
       </c>
       <c r="K11" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="244" t="s">
+      <c r="L11" s="246" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="244"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="238"/>
-      <c r="P11" s="240"/>
+      <c r="M11" s="246"/>
+      <c r="N11" s="239"/>
+      <c r="O11" s="240"/>
+      <c r="P11" s="242"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A12" s="247"/>
-      <c r="B12" s="243"/>
+      <c r="A12" s="249"/>
+      <c r="B12" s="245"/>
       <c r="C12" s="41">
         <f>'RAW GRADES'!F7</f>
         <v>0.3</v>
@@ -24019,7 +24019,7 @@
       <c r="O12" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="241"/>
+      <c r="P12" s="243"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="44">
@@ -27985,8 +27985,8 @@
   </sheetPr>
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="A1:F56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28014,106 +28014,106 @@
       <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="249"/>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
+      <c r="A3" s="254"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="268" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
+      <c r="B4" s="268"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="269" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="250" t="s">
+      <c r="A6" s="268" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="250"/>
-      <c r="C6" s="250"/>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="252" t="s">
+      <c r="A7" s="270" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="252"/>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
+      <c r="B7" s="270"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="270"/>
+      <c r="F7" s="270"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="253"/>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
+      <c r="A8" s="271"/>
+      <c r="B8" s="271"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="249"/>
-      <c r="B9" s="249"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
+      <c r="A9" s="254"/>
+      <c r="B9" s="254"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="254"/>
-      <c r="B10" s="254"/>
-      <c r="C10" s="254"/>
-      <c r="D10" s="254"/>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
+      <c r="A10" s="272"/>
+      <c r="B10" s="272"/>
+      <c r="C10" s="272"/>
+      <c r="D10" s="272"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="272"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="255" t="s">
+      <c r="A11" s="273" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="255"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="255"/>
-      <c r="F11" s="255"/>
+      <c r="B11" s="273"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="273"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="253"/>
-      <c r="B12" s="253"/>
-      <c r="C12" s="253"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="253"/>
-      <c r="F12" s="253"/>
+      <c r="A12" s="271"/>
+      <c r="B12" s="271"/>
+      <c r="C12" s="271"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="271"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="55"/>
       <c r="B13" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="256" t="str">
+      <c r="C13" s="274" t="str">
         <f>UPPER(REGISTRATION!C7)</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
+      <c r="D13" s="274"/>
+      <c r="E13" s="274"/>
       <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6">
@@ -28121,12 +28121,12 @@
       <c r="B14" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="248" t="str">
+      <c r="C14" s="267" t="str">
         <f>UPPER(REGISTRATION!C6)</f>
         <v>WEB DEVELOPMENT</v>
       </c>
-      <c r="D14" s="248"/>
-      <c r="E14" s="248"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
       <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -28134,12 +28134,12 @@
       <c r="B15" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="257" t="str">
+      <c r="C15" s="258" t="str">
         <f>UPPER(REGISTRATION!D8)</f>
         <v>3</v>
       </c>
-      <c r="D15" s="257"/>
-      <c r="E15" s="257"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
       <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:6">
@@ -28147,12 +28147,12 @@
       <c r="B16" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="258" t="str">
+      <c r="C16" s="259" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!E8))</f>
         <v>BSIT B</v>
       </c>
-      <c r="D16" s="258"/>
-      <c r="E16" s="258"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
       <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:6">
@@ -28160,12 +28160,12 @@
       <c r="B17" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="258" t="str">
+      <c r="C17" s="259" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECOND SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="258"/>
-      <c r="E17" s="258"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
       <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -28177,22 +28177,22 @@
       <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="259" t="s">
+      <c r="A19" s="250" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="262" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="259" t="s">
+      <c r="C19" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="259" t="s">
+      <c r="D19" s="250" t="s">
         <v>104</v>
       </c>
       <c r="E19" s="264" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="259" t="s">
+      <c r="F19" s="250" t="s">
         <v>88</v>
       </c>
     </row>
@@ -28202,7 +28202,7 @@
       <c r="C20" s="260"/>
       <c r="D20" s="260"/>
       <c r="E20" s="265"/>
-      <c r="F20" s="267"/>
+      <c r="F20" s="251"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
       <c r="A21" s="261"/>
@@ -28212,7 +28212,7 @@
       <c r="C21" s="261"/>
       <c r="D21" s="261"/>
       <c r="E21" s="266"/>
-      <c r="F21" s="268"/>
+      <c r="F21" s="252"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="60">
@@ -28890,14 +28890,14 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A49" s="270" t="s">
+      <c r="A49" s="255" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="271"/>
-      <c r="C49" s="271"/>
-      <c r="D49" s="271"/>
-      <c r="E49" s="271"/>
-      <c r="F49" s="272"/>
+      <c r="B49" s="256"/>
+      <c r="C49" s="256"/>
+      <c r="D49" s="256"/>
+      <c r="E49" s="256"/>
+      <c r="F49" s="257"/>
     </row>
     <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="57"/>
@@ -28930,11 +28930,11 @@
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
-      <c r="E53" s="269">
+      <c r="E53" s="253">
         <f ca="1">NOW()</f>
-        <v>43248.775324768518</v>
-      </c>
-      <c r="F53" s="269"/>
+        <v>43250.939523726855</v>
+      </c>
+      <c r="F53" s="253"/>
     </row>
     <row r="54" spans="1:6" ht="15.75">
       <c r="A54" s="55"/>
@@ -28944,10 +28944,10 @@
       </c>
       <c r="C54" s="68"/>
       <c r="D54" s="68"/>
-      <c r="E54" s="249" t="s">
+      <c r="E54" s="254" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="249"/>
+      <c r="F54" s="254"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="55"/>
@@ -28964,8 +28964,8 @@
       <c r="B56" s="69"/>
       <c r="C56" s="69"/>
       <c r="D56" s="69"/>
-      <c r="E56" s="249"/>
-      <c r="F56" s="249"/>
+      <c r="E56" s="254"/>
+      <c r="F56" s="254"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="55"/>
@@ -29082,19 +29082,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -29107,6 +29094,19 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A49:F49"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F48">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -29147,14 +29147,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="275" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
+      <c r="C4" s="275"/>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="B5" s="55"/>
@@ -29165,130 +29165,130 @@
       <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B6" s="280" t="s">
+      <c r="B6" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="279"/>
-      <c r="D6" s="278" t="s">
+      <c r="C6" s="282"/>
+      <c r="D6" s="281" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="279"/>
-      <c r="F6" s="278" t="s">
+      <c r="E6" s="282"/>
+      <c r="F6" s="281" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="279"/>
+      <c r="G6" s="282"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="281" t="s">
+      <c r="B7" s="296" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="282"/>
-      <c r="D7" s="283">
+      <c r="C7" s="297"/>
+      <c r="D7" s="298">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=1.0")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=1.25")+(COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=1.50")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=1.75"))</f>
         <v>4</v>
       </c>
-      <c r="E7" s="284"/>
-      <c r="F7" s="285">
+      <c r="E7" s="299"/>
+      <c r="F7" s="300">
         <f t="shared" ref="F7:F12" si="0">(D7/$D$13)*100</f>
         <v>14.814814814814813</v>
       </c>
-      <c r="G7" s="286"/>
+      <c r="G7" s="301"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="273" t="s">
+      <c r="B8" s="291" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="274"/>
+      <c r="C8" s="292"/>
       <c r="D8" s="287">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=2.0")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=2.25")+(COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=2.50")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=2.75"))</f>
         <v>21</v>
       </c>
       <c r="E8" s="288"/>
-      <c r="F8" s="289">
+      <c r="F8" s="279">
         <f t="shared" si="0"/>
         <v>77.777777777777786</v>
       </c>
-      <c r="G8" s="290"/>
+      <c r="G8" s="280"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="273" t="s">
+      <c r="B9" s="291" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="274"/>
+      <c r="C9" s="292"/>
       <c r="D9" s="287">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=3.0")</f>
         <v>2</v>
       </c>
       <c r="E9" s="288"/>
-      <c r="F9" s="289">
+      <c r="F9" s="279">
         <f t="shared" si="0"/>
         <v>7.4074074074074066</v>
       </c>
-      <c r="G9" s="290"/>
+      <c r="G9" s="280"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="273" t="s">
+      <c r="B10" s="291" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="274"/>
+      <c r="C10" s="292"/>
       <c r="D10" s="287">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=5.0")</f>
         <v>0</v>
       </c>
       <c r="E10" s="288"/>
-      <c r="F10" s="289">
+      <c r="F10" s="279">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="290"/>
+      <c r="G10" s="280"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="273" t="s">
+      <c r="B11" s="291" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="274"/>
-      <c r="D11" s="295">
+      <c r="C11" s="292"/>
+      <c r="D11" s="289">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=INC")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="296"/>
-      <c r="F11" s="289">
+      <c r="E11" s="290"/>
+      <c r="F11" s="279">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="290"/>
+      <c r="G11" s="280"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="273" t="s">
+      <c r="B12" s="291" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="274"/>
-      <c r="D12" s="295">
+      <c r="C12" s="292"/>
+      <c r="D12" s="289">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$48,"=drp")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="296"/>
-      <c r="F12" s="289">
+      <c r="E12" s="290"/>
+      <c r="F12" s="279">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="290"/>
+      <c r="G12" s="280"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="275" t="s">
+      <c r="B13" s="293" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="276"/>
-      <c r="D13" s="291">
+      <c r="C13" s="294"/>
+      <c r="D13" s="283">
         <f>SUM(D7:E12)</f>
         <v>27</v>
       </c>
-      <c r="E13" s="292"/>
-      <c r="F13" s="293">
+      <c r="E13" s="284"/>
+      <c r="F13" s="285">
         <f>SUM(F7:G12)</f>
         <v>100</v>
       </c>
-      <c r="G13" s="294"/>
+      <c r="G13" s="286"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="55"/>
@@ -29307,16 +29307,16 @@
       <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="325" t="s">
+      <c r="A16" s="276" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="325"/>
-      <c r="C16" s="325"/>
-      <c r="D16" s="325"/>
-      <c r="E16" s="325"/>
-      <c r="F16" s="325"/>
-      <c r="G16" s="325"/>
-      <c r="H16" s="325"/>
+      <c r="B16" s="276"/>
+      <c r="C16" s="276"/>
+      <c r="D16" s="276"/>
+      <c r="E16" s="276"/>
+      <c r="F16" s="276"/>
+      <c r="G16" s="276"/>
+      <c r="H16" s="276"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="55"/>
@@ -29328,8 +29328,8 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="57"/>
-      <c r="B18" s="326"/>
-      <c r="C18" s="327"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="142"/>
       <c r="E18" s="55"/>
       <c r="F18" s="139" t="s">
         <v>119</v>
@@ -29337,12 +29337,12 @@
       <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="328" t="s">
+      <c r="A19" s="277" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="328"/>
-      <c r="C19" s="328"/>
-      <c r="D19" s="328"/>
+      <c r="B19" s="277"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="277"/>
       <c r="E19" s="55"/>
       <c r="F19" s="140" t="s">
         <v>190</v>
@@ -29350,22 +29350,22 @@
       <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="329" t="s">
+      <c r="A20" s="278" t="s">
         <v>300</v>
       </c>
-      <c r="B20" s="329"/>
-      <c r="C20" s="329"/>
-      <c r="D20" s="329"/>
+      <c r="B20" s="278"/>
+      <c r="C20" s="278"/>
+      <c r="D20" s="278"/>
       <c r="E20" s="55"/>
       <c r="F20" s="139" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1">
-      <c r="A21" s="329"/>
-      <c r="B21" s="329"/>
-      <c r="C21" s="329"/>
-      <c r="D21" s="329"/>
+      <c r="A21" s="278"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="278"/>
+      <c r="D21" s="278"/>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="55"/>
@@ -29392,16 +29392,16 @@
       <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="325" t="s">
+      <c r="A25" s="276" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="325"/>
-      <c r="C25" s="325"/>
-      <c r="D25" s="325"/>
-      <c r="E25" s="325"/>
-      <c r="F25" s="325"/>
-      <c r="G25" s="325"/>
-      <c r="H25" s="325"/>
+      <c r="B25" s="276"/>
+      <c r="C25" s="276"/>
+      <c r="D25" s="276"/>
+      <c r="E25" s="276"/>
+      <c r="F25" s="276"/>
+      <c r="G25" s="276"/>
+      <c r="H25" s="276"/>
     </row>
     <row r="26" spans="1:8" ht="15.75">
       <c r="C26" s="55"/>
@@ -29409,40 +29409,40 @@
       <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="249" t="s">
+      <c r="A27" s="254" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="249"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="249"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="249"/>
+      <c r="B27" s="254"/>
+      <c r="C27" s="254"/>
+      <c r="D27" s="254"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="277" t="s">
+      <c r="A28" s="275" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="277"/>
-      <c r="C28" s="277"/>
-      <c r="D28" s="277"/>
-      <c r="E28" s="277"/>
-      <c r="F28" s="277"/>
-      <c r="G28" s="277"/>
-      <c r="H28" s="277"/>
+      <c r="B28" s="275"/>
+      <c r="C28" s="275"/>
+      <c r="D28" s="275"/>
+      <c r="E28" s="275"/>
+      <c r="F28" s="275"/>
+      <c r="G28" s="275"/>
+      <c r="H28" s="275"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="249" t="s">
+      <c r="A29" s="254" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="249"/>
-      <c r="C29" s="249"/>
-      <c r="D29" s="249"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="249"/>
-      <c r="G29" s="249"/>
-      <c r="H29" s="249"/>
+      <c r="B29" s="254"/>
+      <c r="C29" s="254"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="254"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="254"/>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="55"/>
@@ -29454,23 +29454,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -29486,6 +29469,23 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -29586,123 +29586,123 @@
       <c r="J6" s="114"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A7" s="312" t="s">
+      <c r="A7" s="302" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="313"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="313"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="313"/>
-      <c r="G7" s="313"/>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="314"/>
+      <c r="B7" s="303"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="304"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="315" t="str">
+      <c r="A8" s="305" t="str">
         <f>UPPER(REGISTRATION!Q18)</f>
         <v>DEPARTMENT OF INFORMATION TECHNOLOGY</v>
       </c>
-      <c r="B8" s="316"/>
-      <c r="C8" s="316"/>
-      <c r="D8" s="316"/>
-      <c r="E8" s="316"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="316" t="str">
+      <c r="B8" s="306"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="306"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="306" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13,"SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECONDSEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="H8" s="316"/>
-      <c r="I8" s="316"/>
-      <c r="J8" s="317"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="307"/>
     </row>
     <row r="9" spans="1:10" ht="20.25">
-      <c r="A9" s="318" t="s">
+      <c r="A9" s="308" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="319"/>
-      <c r="C9" s="320" t="str">
+      <c r="B9" s="309"/>
+      <c r="C9" s="310" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C7," - ",REGISTRATION!C6))</f>
         <v>DCIT 65 - WEB DEVELOPMENT</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="319" t="s">
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="319"/>
-      <c r="I9" s="321" t="str">
+      <c r="H9" s="309"/>
+      <c r="I9" s="311" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ", REGISTRATION!D8, REGISTRATION!E8))</f>
         <v>BSIT 3B</v>
       </c>
-      <c r="J9" s="322"/>
+      <c r="J9" s="312"/>
     </row>
     <row r="10" spans="1:10" ht="21" thickBot="1">
-      <c r="A10" s="297" t="s">
+      <c r="A10" s="313" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="298"/>
-      <c r="C10" s="299" t="str">
+      <c r="B10" s="314"/>
+      <c r="C10" s="315" t="str">
         <f>UPPER(REGISTRATION!Q14)</f>
         <v>GIMEL C. CONTILLO</v>
       </c>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="298" t="s">
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="314" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="298"/>
-      <c r="I10" s="300" t="str">
+      <c r="H10" s="314"/>
+      <c r="I10" s="316" t="str">
         <f>CONCATENATE(REGISTRATION!J6," ", REGISTRATION!J7," ",REGISTRATION!J8)</f>
         <v>Monday 2PM - 4PM 353</v>
       </c>
-      <c r="J10" s="301"/>
+      <c r="J10" s="317"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A11" s="311" t="s">
+      <c r="A11" s="327" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="311"/>
-      <c r="C11" s="311"/>
-      <c r="D11" s="311"/>
-      <c r="E11" s="311"/>
-      <c r="F11" s="311"/>
-      <c r="G11" s="311"/>
-      <c r="H11" s="311"/>
-      <c r="I11" s="311"/>
-      <c r="J11" s="311"/>
+      <c r="B11" s="327"/>
+      <c r="C11" s="327"/>
+      <c r="D11" s="327"/>
+      <c r="E11" s="327"/>
+      <c r="F11" s="327"/>
+      <c r="G11" s="327"/>
+      <c r="H11" s="327"/>
+      <c r="I11" s="327"/>
+      <c r="J11" s="327"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12" s="302"/>
-      <c r="B12" s="304" t="s">
+      <c r="A12" s="318"/>
+      <c r="B12" s="320" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="304" t="s">
+      <c r="C12" s="320" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="304" t="s">
+      <c r="D12" s="320" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="306" t="s">
+      <c r="E12" s="322" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="308" t="s">
+      <c r="F12" s="324" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="309"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="310"/>
+      <c r="G12" s="325"/>
+      <c r="H12" s="325"/>
+      <c r="I12" s="325"/>
+      <c r="J12" s="326"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="303"/>
-      <c r="B13" s="305"/>
-      <c r="C13" s="305"/>
-      <c r="D13" s="305"/>
-      <c r="E13" s="307"/>
+      <c r="A13" s="319"/>
+      <c r="B13" s="321"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="323"/>
       <c r="F13" s="137">
         <v>43222</v>
       </c>
@@ -30891,13 +30891,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -30909,6 +30902,13 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="82" orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
@@ -31006,123 +31006,123 @@
       <c r="J6" s="114"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A7" s="312" t="s">
+      <c r="A7" s="302" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="313"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="313"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="313"/>
-      <c r="G7" s="313"/>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="314"/>
+      <c r="B7" s="303"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="304"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="315" t="str">
+      <c r="A8" s="305" t="str">
         <f>UPPER(REGISTRATION!Q18)</f>
         <v>DEPARTMENT OF INFORMATION TECHNOLOGY</v>
       </c>
-      <c r="B8" s="316"/>
-      <c r="C8" s="316"/>
-      <c r="D8" s="316"/>
-      <c r="E8" s="316"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="316" t="str">
+      <c r="B8" s="306"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="306"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="306" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13,"SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECONDSEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="H8" s="316"/>
-      <c r="I8" s="316"/>
-      <c r="J8" s="317"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="307"/>
     </row>
     <row r="9" spans="1:10" ht="20.25">
-      <c r="A9" s="318" t="s">
+      <c r="A9" s="308" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="319"/>
-      <c r="C9" s="320" t="str">
+      <c r="B9" s="309"/>
+      <c r="C9" s="310" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C7," - ",REGISTRATION!C6))</f>
         <v>DCIT 65 - WEB DEVELOPMENT</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="319" t="s">
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="319"/>
-      <c r="I9" s="321" t="str">
+      <c r="H9" s="309"/>
+      <c r="I9" s="311" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ", REGISTRATION!D8, REGISTRATION!E8))</f>
         <v>BSIT 3B</v>
       </c>
-      <c r="J9" s="322"/>
+      <c r="J9" s="312"/>
     </row>
     <row r="10" spans="1:10" ht="21" thickBot="1">
-      <c r="A10" s="297" t="s">
+      <c r="A10" s="313" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="298"/>
-      <c r="C10" s="299" t="str">
+      <c r="B10" s="314"/>
+      <c r="C10" s="315" t="str">
         <f>UPPER(REGISTRATION!Q14)</f>
         <v>GIMEL C. CONTILLO</v>
       </c>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="298" t="s">
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="314" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="298"/>
-      <c r="I10" s="323" t="str">
+      <c r="H10" s="314"/>
+      <c r="I10" s="328" t="str">
         <f>CONCATENATE(REGISTRATION!M6, " ", REGISTRATION!M7, " ", REGISTRATION!M8)</f>
         <v>Monday 4PM - 7PM CL 1</v>
       </c>
-      <c r="J10" s="324"/>
+      <c r="J10" s="329"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A11" s="311" t="s">
+      <c r="A11" s="327" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="311"/>
-      <c r="C11" s="311"/>
-      <c r="D11" s="311"/>
-      <c r="E11" s="311"/>
-      <c r="F11" s="311"/>
-      <c r="G11" s="311"/>
-      <c r="H11" s="311"/>
-      <c r="I11" s="311"/>
-      <c r="J11" s="311"/>
+      <c r="B11" s="327"/>
+      <c r="C11" s="327"/>
+      <c r="D11" s="327"/>
+      <c r="E11" s="327"/>
+      <c r="F11" s="327"/>
+      <c r="G11" s="327"/>
+      <c r="H11" s="327"/>
+      <c r="I11" s="327"/>
+      <c r="J11" s="327"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12" s="302"/>
-      <c r="B12" s="304" t="s">
+      <c r="A12" s="318"/>
+      <c r="B12" s="320" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="304" t="s">
+      <c r="C12" s="320" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="304" t="s">
+      <c r="D12" s="320" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="306" t="s">
+      <c r="E12" s="322" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="308" t="s">
+      <c r="F12" s="324" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="309"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="310"/>
+      <c r="G12" s="325"/>
+      <c r="H12" s="325"/>
+      <c r="I12" s="325"/>
+      <c r="J12" s="326"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="303"/>
-      <c r="B13" s="305"/>
-      <c r="C13" s="305"/>
-      <c r="D13" s="305"/>
-      <c r="E13" s="307"/>
+      <c r="A13" s="319"/>
+      <c r="B13" s="321"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="323"/>
       <c r="F13" s="115"/>
       <c r="G13" s="115"/>
       <c r="H13" s="115"/>
@@ -32301,13 +32301,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -32319,6 +32312,13 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="78" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
